--- a/biology/Botanique/Mangifera_austro-yunnanensis/Mangifera_austro-yunnanensis.xlsx
+++ b/biology/Botanique/Mangifera_austro-yunnanensis/Mangifera_austro-yunnanensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mangifera indica
 Le Manguier (Mangifera indica L.) est un arbre de la famille des Anacardiaceae, originaire d'Asie méridionale, largement cultivé dans les pays tropicaux pour son fruit, la mangue.
@@ -513,9 +525,11 @@
           <t>Origine et distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Manguier est un arbre originaire de l'Inde orientale et de Birmanie. Il est cultivé en Inde depuis plus de 4 000 ans[2],[3]. Il fut introduit au XVIe siècle en Afrique par les Arabes et au Brésil par les Portugais.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Manguier est un arbre originaire de l'Inde orientale et de Birmanie. Il est cultivé en Inde depuis plus de 4 000 ans,. Il fut introduit au XVIe siècle en Afrique par les Arabes et au Brésil par les Portugais.
 Il est largement cultivé dans tous les pays tropicaux à partir du XVIIe siècle, notamment en Afrique, à La Réunion et à l'île Maurice, aux Seychelles, aux Antilles et au Brésil.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Habitat, écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Manguier s'accommode de tous les sols, mais préfère des sols profonds, limoneux et frais.
 Il croît en zone tropicale, dans les régions comprises entre 0 et 700 m d'altitude. Au-delà, sa fructification tend à se réduire. Il craint les pluies au moment de la floraison, qui contrarie la fécondation. Une saison sèche de deux à trois mois favorise le départ de la floraison.
@@ -577,7 +593,9 @@
           <t>Description botanique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Manguier est un grand arbre qui peut atteindre 10 à 25 mètres de hauteur, avec un houppier de 20 mètres de diamètre. Son écorce est lisse, d'un gris-brun foncé à noir.
 Ses feuilles alternes, entières, de forme oblongue et pointue, sont persistantes. Elles peuvent mesurer de 15 à 35 cm de long sur 6 à 16 cm de large. Lorsqu'on les froisse, elles exhalent une odeur de térébenthine. Leur couleur est d'un rose orangé au début de leur croissance puis passe par une teinte rouge foncé brillant avant de devenir vert foncé à maturité,
@@ -611,187 +629,428 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Manguier est souvent propagé par semis en raison de sa forte tendance à la polyembryonie qui facilite le clonage.
 Les Manguiers de semis atteignent leur pleine production vers l'âge de 10 ans (contre 3 à 4 ans pour les arbres greffés) et peuvent produire de façon rentable (en moyenne une centaine par an) durant une bonne vingtaine d'années mais l'arbre peut vivre plus de 100 ans.
-Les grands systèmes de culture
-Le Manguier est cultivé comme arbre isolé ou en vergers homogènes plus denses. En raison de son fort développement, il est rare que les densités de plantation soient supérieures à 200 pieds/ha. Seules les localisations subtropicales extrêmes[Quoi ?] autorisent 400 plants/ha.
-L'itinéraire technique et l'élaboration du rendement
-La propagation des Manguiers
-Les variétés mono-embryonnées ne peuvent être reproduites fidèlement que par greffage. Les variétés poly-embryonnées peuvent être reproduites par semis, mais une dérive du type est toujours possible. Le plant greffé est plus vigoureux et entre en production deux à trois ans plus tôt. Aussi ce mode de multiplication est recommandé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mangifera_austro-yunnanensis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mangifera_austro-yunnanensis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Les grands systèmes de culture</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Manguier est cultivé comme arbre isolé ou en vergers homogènes plus denses. En raison de son fort développement, il est rare que les densités de plantation soient supérieures à 200 pieds/ha. Seules les localisations subtropicales extrêmes[Quoi ?] autorisent 400 plants/ha.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mangifera_austro-yunnanensis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mangifera_austro-yunnanensis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>L'itinéraire technique et l'élaboration du rendement</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>La propagation des Manguiers</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les variétés mono-embryonnées ne peuvent être reproduites fidèlement que par greffage. Les variétés poly-embryonnées peuvent être reproduites par semis, mais une dérive du type est toujours possible. Le plant greffé est plus vigoureux et entre en production deux à trois ans plus tôt. Aussi ce mode de multiplication est recommandé.
 Il n'existe que très peu de porte-greffes sélectionnés, généralement ils sont choisis parmi les variétés locales poly-embryonnées pour obtenir des plants homogènes, si possible peu vigoureux (Sabre en Afrique du Sud, Tête de chat en Côte d'Ivoire, Maison Rouge à La Réunion). La graine est mise en germoir puis repiquée dans un sac plastique contenant un mélange terreux riche et drainant. Le plant est greffé en fente de côté ou à l'anglaise. Sous les tropiques, les plants sont prêts en un an. La station CIRAD-FLHOR de Vieux-Habitants en Guadeloupe dispose, en zone saine, d'un important germplasme.
-La plantation
-Les densités de plantation varient en fonction du climat et de la vigueur de l'arbre : de 100 arbres/ha pour Kensington Pride, à 400 arbres/ha pour Keitt en passant par des valeurs intermédiaires de 220 arbres/ha pour Kent, Irwin, Palmer, Nam Doc Mai.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mangifera_austro-yunnanensis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mangifera_austro-yunnanensis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>L'itinéraire technique et l'élaboration du rendement</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>La plantation</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les densités de plantation varient en fonction du climat et de la vigueur de l'arbre : de 100 arbres/ha pour Kensington Pride, à 400 arbres/ha pour Keitt en passant par des valeurs intermédiaires de 220 arbres/ha pour Kent, Irwin, Palmer, Nam Doc Mai.
 Le futur verger est aménagé pour obtenir une bonne évacuation de eaux de ruissellement (nivellement léger, ados, fossés de drainage). Un réseau de brise-vent est implanté si nécessaire. La structure du sol est améliorée avant plantation avec des outils à dents (si possible sur 0,8 à 1 m). Une fumure et des amendements sont apportés suivant les recommandations d'une analyse de sol.
 Après piquetage, les jeunes scions sont plantés, en début de saison des pluies, dans des trous individuels préalablement creusés (0,6 m de côté), en veillant à positionner le collet au sommet de la butte de plantation. Une culture intercalaire peut être envisagée les premières années. Dès l'entrée en production, les impératifs du programme de traitements phytosanitaires rendent cette option difficile.
-L'entretien
-La taille de formation a pour objet d'obtenir la structuration de l'arbre en trois à cinq branches charpentières insérées à différents niveaux du tronc et régulièrement réparties. Ceci est obtenu en rabattant l'axe principal au niveau d'une unité de croissance vigoureuse en partie décapitée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mangifera_austro-yunnanensis</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mangifera_austro-yunnanensis</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>L'itinéraire technique et l'élaboration du rendement</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>L'entretien</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille de formation a pour objet d'obtenir la structuration de l'arbre en trois à cinq branches charpentières insérées à différents niveaux du tronc et régulièrement réparties. Ceci est obtenu en rabattant l'axe principal au niveau d'une unité de croissance vigoureuse en partie décapitée.
 Les premières années de plantation, une fumure est régulièrement épandue sous la frondaison en quatre ou cinq apports sous forme d'engrais équilibré NPK. Avec l'entrée en fructification, la proportion de potasse est augmentée et celle de phosphore diminuée dans des proportions (N = 1 – P2O5 = 0,5 – K2O = 1,5). La quantité de fumure augmente progressivement chaque année pour atteindre un niveau de 200 kg de N par ha à dix ans. Sur un verger adulte, elle est épandue en trois fois : après la récolte, avant la floraison, au début du grossissement du fruit (jamais en fin).
 Les Manguiers sont souvent cultivés en sec. L'irrigation, utilisée dans certaines zones sèches de culture plus intensive, est souvent à l'origine d'une augmentation sensible des rendements. Dans la pratique, il convient de maintenir un stress hydrique de deux à trois mois avant la floraison. Les apports d'eau ne reprennent, si nécessaire, qu'en fin de floraison et jusqu'au début de la récolte. Pour un verger adulte désherbé, les apports se font à un niveau variant entre 0,5 et 0,6 ETP.
 Le verger peut être enherbé ou désherbé chimiquement dans les situations les plus sèches. En Asie tropicale, l'induction florale artificielle est obtenue par des pulvérisations foliaires de nitrate de potasse (2 à 4 %) sur rameaux matures en repos végétatif.
-La germination
-Pour réussir un semis de Manguier chez soi, il faut se munir d’un petit sac hermétique et d’eau. La germination d’un manguier est très simple, il suffit d’acheter des mangues biologiques (car les pesticides réduisent la capacité de germination). Ensuite prenez les noyaux et tentez de l’ouvrir avec un couteau avec précaution, pour ne pas abîmer la semence, ou la faire sécher pour faciliter l’ouverture. Ensuite, prenez votre sac et insérez l’eau de façon que la moitié de la graine soit trempée. Finalement refermez l’ouverture du sac et attendre. Au bout de 4-14 jours, des racines apparaîtront.
-La protection sanitaire
-La maladie des taches noires ou bactériose du manguier (Xanthomonas campestris pv. mangiferaeindicae) est classée maladie de quarantaine. Toute introduction à partir d'une zone infestée (Asie, Océan Indien, Australie, Brésil) est proscrite.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Mangifera_austro-yunnanensis</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mangifera_austro-yunnanensis</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Mangifera_austro-yunnanensis</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mangifera_austro-yunnanensis</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>L'itinéraire technique et l'élaboration du rendement</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>La germination</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour réussir un semis de Manguier chez soi, il faut se munir d’un petit sac hermétique et d’eau. La germination d’un manguier est très simple, il suffit d’acheter des mangues biologiques (car les pesticides réduisent la capacité de germination). Ensuite prenez les noyaux et tentez de l’ouvrir avec un couteau avec précaution, pour ne pas abîmer la semence, ou la faire sécher pour faciliter l’ouverture. Ensuite, prenez votre sac et insérez l’eau de façon que la moitié de la graine soit trempée. Finalement refermez l’ouverture du sac et attendre. Au bout de 4-14 jours, des racines apparaîtront.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Mangifera_austro-yunnanensis</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mangifera_austro-yunnanensis</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>L'itinéraire technique et l'élaboration du rendement</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>La protection sanitaire</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maladie des taches noires ou bactériose du manguier (Xanthomonas campestris pv. mangiferaeindicae) est classée maladie de quarantaine. Toute introduction à partir d'une zone infestée (Asie, Océan Indien, Australie, Brésil) est proscrite.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Mangifera_austro-yunnanensis</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mangifera_austro-yunnanensis</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Ennemis</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>La mangue est sujette à de nombreux champignons tels que l'anthracnose ou parasites tels que :
 la mouche de la mangue ;
 le charançon du noyau de la mangue ;
 le papillon de nuit (hétérocère) ver mopane, Gonimbrasia belina (Saturniidae) ,
-certaines mouches des fruits telles que Ceratitis cosyra qui est l’espèce dominante des cératites en Afrique de l’Ouest au niveau des vergers de manguiers (sauf peut-être au Sénégal)[4].</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Mangifera_austro-yunnanensis</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mangifera_austro-yunnanensis</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+certaines mouches des fruits telles que Ceratitis cosyra qui est l’espèce dominante des cératites en Afrique de l’Ouest au niveau des vergers de manguiers (sauf peut-être au Sénégal).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Mangifera_austro-yunnanensis</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mangifera_austro-yunnanensis</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">On le cultive pour son fruit, la mangue, qui à maturité a une pulpe molle et juteuse de saveur sucrée.
 Dans les Mascareignes, le fruit vert entre dans une préparation épicée, le « rougail mangue ».
 En Inde, et particulièrement au Bengale, il était traditionnel de fabriquer de la teinture jaune en nourrissant le bétail d'une petite quantité de feuilles de manguier, puis en récoltant l'urine de ces animaux. Cette pratique a été abandonnée.
 Le bois du manguier, dont la teinte se rapproche du noyer, est utilisé en ébénisterie.
-Ses feuilles sont connues, notamment au Sénégal, pour leurs propriétés antiseptiques. On en fait du thé de feuille de manguier, infusion ou décoction en ethnomédecine asiatique et africaine, pour le traitement de la fièvre, de la diarrhée, des évanouissements, des anomalies des ganglions lymphatiques et du diabète [5].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Mangifera_austro-yunnanensis</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mangifera_austro-yunnanensis</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+Ses feuilles sont connues, notamment au Sénégal, pour leurs propriétés antiseptiques. On en fait du thé de feuille de manguier, infusion ou décoction en ethnomédecine asiatique et africaine, pour le traitement de la fièvre, de la diarrhée, des évanouissements, des anomalies des ganglions lymphatiques et du diabète .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Mangifera_austro-yunnanensis</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mangifera_austro-yunnanensis</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Divers</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Il existe environ 300 cultivars de manguier dont certaines sont présentes en Asie depuis 4 000 à 5 000 ans.
-On nomme parfois mangotier l'arbre non greffé. Il produit des fruits plus petits, plus fibreux et non destinés à l'exportation[6].
+On nomme parfois mangotier l'arbre non greffé. Il produit des fruits plus petits, plus fibreux et non destinés à l'exportation.
 La fleur de manguier, fleurissant à la fin de l'hiver, est traditionnellement associée au printemps dans la culture indienne.</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Mangifera_austro-yunnanensis</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mangifera_austro-yunnanensis</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Mangifera_austro-yunnanensis</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mangifera_austro-yunnanensis</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Niche écologique</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Mangifera_austro-yunnanensis</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mangifera_austro-yunnanensis</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Mangifera_austro-yunnanensis</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mangifera_austro-yunnanensis</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (10 septembre 2020)[7] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (10 septembre 2020) (Attention liste brute contenant possiblement des synonymes) :
 variété Mangifera indica var. armeniaca Bello
 variété Mangifera indica var. intermedia Bello
 variété Mangifera indica var. leiosperma Bello
